--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -43,93 +43,96 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
@@ -139,81 +142,81 @@
     <t>back</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>could</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>better</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>much</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -226,49 +229,46 @@
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>best</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>playing</t>
   </si>
   <si>
     <t>play</t>
@@ -632,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +640,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>86</v>
@@ -701,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K5">
         <v>0.8518518518518519</v>
@@ -851,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6842105263157895</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.796875</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6774193548387096</v>
+        <v>0.671875</v>
       </c>
       <c r="C8">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.671875</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.640625</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K9">
         <v>0.5797101449275363</v>
@@ -1051,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6285714285714286</v>
+        <v>0.6148648648648649</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.5480631276901005</v>
+        <v>0.5265423242467718</v>
       </c>
       <c r="L10">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="M10">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6283783783783784</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.4730290456431535</v>
+        <v>0.4979253112033195</v>
       </c>
       <c r="L11">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="M11">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5952380952380952</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.4426229508196721</v>
+        <v>0.4540983606557377</v>
       </c>
       <c r="L12">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="M12">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>680</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5825242718446602</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C13">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.3577981651376147</v>
+        <v>0.3433734939759036</v>
       </c>
       <c r="L13">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="M13">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>210</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5636363636363636</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>0.3192771084337349</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L14">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>113</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5462184873949579</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.2962962962962963</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L15">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.2916666666666667</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>85</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4898550724637681</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C17">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.216</v>
+        <v>0.2109375</v>
       </c>
       <c r="L17">
         <v>27</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1451,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>0.2043010752688172</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.1953125</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>103</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4444444444444444</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.1746031746031746</v>
+        <v>0.176</v>
       </c>
       <c r="L20">
         <v>22</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4096385542168675</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K21">
         <v>0.1678321678321678</v>
@@ -1651,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3968253968253968</v>
+        <v>0.421875</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0.1646586345381526</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>208</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.396551724137931</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>0.1419807186678352</v>
+        <v>0.1463628396143734</v>
       </c>
       <c r="L23">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M23">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1751,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3828125</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,19 +1769,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>0.07520891364902507</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1801,13 +1801,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.375</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,31 +1819,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>0.07272727272727272</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="L25">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1428</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1851,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3744075829383886</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C26">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,31 +1869,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K26">
-        <v>0.06970509383378017</v>
+        <v>0.07082521117608837</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="N26">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O26">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>347</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3684210526315789</v>
+        <v>0.3622047244094488</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,31 +1919,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27">
-        <v>0.06790123456790123</v>
+        <v>0.04127829560585886</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>302</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1951,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3622047244094488</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,31 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>81</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28">
-        <v>0.04933333333333333</v>
-      </c>
-      <c r="L28">
-        <v>37</v>
-      </c>
-      <c r="M28">
-        <v>39</v>
-      </c>
-      <c r="N28">
-        <v>0.95</v>
-      </c>
-      <c r="O28">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>713</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +1977,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2696629213483146</v>
+        <v>0.3359375</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2027,13 +2003,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2623762376237624</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="C30">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2045,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>149</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2053,13 +2029,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2448979591836735</v>
+        <v>0.2920792079207921</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2071,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2079,13 +2055,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2319587628865979</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C32">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2097,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2105,13 +2081,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2051282051282051</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2123,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2131,7 +2107,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1864406779661017</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="C34">
         <v>22</v>
@@ -2149,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2157,13 +2133,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1857142857142857</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2175,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2183,13 +2159,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.175</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2201,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2209,13 +2185,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1739130434782609</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C37">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D37">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2227,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>228</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2235,13 +2211,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1679049034175334</v>
+        <v>0.1575037147102526</v>
       </c>
       <c r="C38">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D38">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E38">
         <v>0.01</v>
@@ -2253,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2261,13 +2237,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1582278481012658</v>
+        <v>0.15</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2279,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>266</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2287,13 +2263,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.146551724137931</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C40">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2305,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>297</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2313,13 +2289,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1464968152866242</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2331,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>134</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2339,25 +2315,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1428571428571428</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E42">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>270</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2365,13 +2341,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1401869158878505</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2383,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2391,25 +2367,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1235955056179775</v>
+        <v>0.1396825396825397</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2417,25 +2393,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1214574898785425</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2443,13 +2419,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1204188481675393</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2461,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>168</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2469,13 +2445,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1079295154185022</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C47">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D47">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2487,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>405</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2495,25 +2471,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.07692307692307693</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C48">
         <v>28</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>336</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2521,25 +2497,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.07589285714285714</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>414</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2547,25 +2523,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06611570247933884</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E50">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>565</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2573,25 +2549,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0539906103286385</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="F51">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>403</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2599,25 +2575,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.04732824427480916</v>
+        <v>0.07107438016528926</v>
       </c>
       <c r="C52">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D52">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>624</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2625,25 +2601,51 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.04441624365482234</v>
+        <v>0.04580152671755725</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E53">
+        <v>0.18</v>
+      </c>
+      <c r="F53">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.03533026113671275</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>27</v>
+      </c>
+      <c r="E54">
         <v>0.15</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>0.85</v>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>753</v>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
